--- a/results/mp/deberta/corona/confidence/84/stop-words-topk-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/84/stop-words-topk-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="72">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,21 +49,21 @@
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>free</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
@@ -76,36 +76,42 @@
     <t>thanks</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>good</t>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>friends</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>support</t>
+    <t>well</t>
   </si>
   <si>
     <t>safe</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
+    <t>safety</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
@@ -115,7 +121,7 @@
     <t>share</t>
   </si>
   <si>
-    <t>safety</t>
+    <t>care</t>
   </si>
   <si>
     <t>help</t>
@@ -124,75 +130,96 @@
     <t>hand</t>
   </si>
   <si>
-    <t>care</t>
+    <t>community</t>
+  </si>
+  <si>
+    <t>relief</t>
   </si>
   <si>
     <t>sure</t>
   </si>
   <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
     <t>new</t>
   </si>
   <si>
+    <t>hands</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
     <t>online</t>
   </si>
   <si>
-    <t>staff</t>
+    <t>2</t>
   </si>
   <si>
     <t>retail</t>
   </si>
   <si>
-    <t>2</t>
+    <t>health</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>day</t>
   </si>
   <si>
     <t>shopping</t>
   </si>
   <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
     <t>home</t>
   </si>
   <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
     <t>store</t>
   </si>
   <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
     <t>grocery</t>
   </si>
   <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
     <t>co</t>
   </si>
   <si>
-    <t>via</t>
-  </si>
-  <si>
     <t>san</t>
   </si>
   <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>social</t>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>stay</t>
   </si>
   <si>
     <t>supermarket</t>
   </si>
   <si>
-    <t>consumer</t>
-  </si>
-  <si>
     <t>toilet</t>
   </si>
   <si>
@@ -200,6 +227,9 @@
   </si>
   <si>
     <t>prices</t>
+  </si>
+  <si>
+    <t>food</t>
   </si>
 </sst>
 </file>
@@ -557,7 +587,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q53"/>
+  <dimension ref="A1:Q63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -568,7 +598,7 @@
         <v>10</v>
       </c>
       <c r="J1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -626,13 +656,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.4554794520547945</v>
+        <v>0.4691780821917808</v>
       </c>
       <c r="C3">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D3">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -644,31 +674,31 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K3">
-        <v>0.967741935483871</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M3">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="N3">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -676,49 +706,49 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.112621359223301</v>
+        <v>0.1220930232558139</v>
       </c>
       <c r="C4">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D4">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E4">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K4">
-        <v>0.9333333333333333</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L4">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="M4">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="N4">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -726,13 +756,13 @@
         <v>13</v>
       </c>
       <c r="K5">
-        <v>0.9322033898305084</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L5">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M5">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -744,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -752,25 +782,25 @@
         <v>14</v>
       </c>
       <c r="K6">
-        <v>0.8888888888888888</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L6">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="M6">
-        <v>107</v>
+        <v>42</v>
       </c>
       <c r="N6">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -778,13 +808,13 @@
         <v>15</v>
       </c>
       <c r="K7">
-        <v>0.8846153846153846</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L7">
-        <v>23</v>
+        <v>104</v>
       </c>
       <c r="M7">
-        <v>23</v>
+        <v>104</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -796,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -804,25 +834,25 @@
         <v>16</v>
       </c>
       <c r="K8">
-        <v>0.8363636363636363</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L8">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="M8">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="N8">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -830,13 +860,13 @@
         <v>17</v>
       </c>
       <c r="K9">
-        <v>0.8333333333333334</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -848,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -856,25 +886,25 @@
         <v>18</v>
       </c>
       <c r="K10">
-        <v>0.8267716535433071</v>
+        <v>0.84375</v>
       </c>
       <c r="L10">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M10">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="N10">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O10">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -882,25 +912,25 @@
         <v>19</v>
       </c>
       <c r="K11">
-        <v>0.8125</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L11">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N11">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O11">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -908,13 +938,13 @@
         <v>20</v>
       </c>
       <c r="K12">
-        <v>0.7777777777777778</v>
+        <v>0.78125</v>
       </c>
       <c r="L12">
-        <v>49</v>
+        <v>125</v>
       </c>
       <c r="M12">
-        <v>49</v>
+        <v>125</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -926,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -934,25 +964,25 @@
         <v>21</v>
       </c>
       <c r="K13">
-        <v>0.7579617834394905</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="L13">
-        <v>119</v>
+        <v>48</v>
       </c>
       <c r="M13">
-        <v>122</v>
+        <v>48</v>
       </c>
       <c r="N13">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>38</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -960,25 +990,25 @@
         <v>22</v>
       </c>
       <c r="K14">
-        <v>0.7192982456140351</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L14">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="M14">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="N14">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -986,13 +1016,13 @@
         <v>23</v>
       </c>
       <c r="K15">
-        <v>0.7021276595744681</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L15">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="M15">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1004,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1012,25 +1042,25 @@
         <v>24</v>
       </c>
       <c r="K16">
-        <v>0.6782608695652174</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="L16">
-        <v>156</v>
+        <v>40</v>
       </c>
       <c r="M16">
-        <v>165</v>
+        <v>40</v>
       </c>
       <c r="N16">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>74</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1038,25 +1068,25 @@
         <v>25</v>
       </c>
       <c r="K17">
-        <v>0.6764705882352942</v>
+        <v>0.6792452830188679</v>
       </c>
       <c r="L17">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="M17">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="N17">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1064,25 +1094,25 @@
         <v>26</v>
       </c>
       <c r="K18">
-        <v>0.6633663366336634</v>
+        <v>0.6694560669456067</v>
       </c>
       <c r="L18">
-        <v>67</v>
+        <v>160</v>
       </c>
       <c r="M18">
-        <v>72</v>
+        <v>160</v>
       </c>
       <c r="N18">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>34</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1093,22 +1123,22 @@
         <v>0.6595744680851063</v>
       </c>
       <c r="L19">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="M19">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="N19">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1116,25 +1146,25 @@
         <v>28</v>
       </c>
       <c r="K20">
-        <v>0.6111111111111112</v>
+        <v>0.648936170212766</v>
       </c>
       <c r="L20">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="M20">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="N20">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1142,25 +1172,25 @@
         <v>29</v>
       </c>
       <c r="K21">
-        <v>0.6086956521739131</v>
+        <v>0.647887323943662</v>
       </c>
       <c r="L21">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="M21">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="N21">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>18</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1168,25 +1198,25 @@
         <v>30</v>
       </c>
       <c r="K22">
-        <v>0.5349544072948328</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="L22">
-        <v>176</v>
+        <v>31</v>
       </c>
       <c r="M22">
-        <v>187</v>
+        <v>31</v>
       </c>
       <c r="N22">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>153</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1194,25 +1224,25 @@
         <v>31</v>
       </c>
       <c r="K23">
-        <v>0.53125</v>
+        <v>0.5490196078431373</v>
       </c>
       <c r="L23">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="M23">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N23">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1220,25 +1250,25 @@
         <v>32</v>
       </c>
       <c r="K24">
-        <v>0.5147058823529411</v>
+        <v>0.5470588235294118</v>
       </c>
       <c r="L24">
-        <v>35</v>
+        <v>186</v>
       </c>
       <c r="M24">
-        <v>37</v>
+        <v>186</v>
       </c>
       <c r="N24">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>33</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1246,13 +1276,13 @@
         <v>33</v>
       </c>
       <c r="K25">
-        <v>0.5098039215686274</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L25">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="M25">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1264,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1272,25 +1302,25 @@
         <v>34</v>
       </c>
       <c r="K26">
-        <v>0.4689655172413793</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="L26">
-        <v>136</v>
+        <v>34</v>
       </c>
       <c r="M26">
-        <v>141</v>
+        <v>34</v>
       </c>
       <c r="N26">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>154</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1298,25 +1328,25 @@
         <v>35</v>
       </c>
       <c r="K27">
-        <v>0.4240837696335079</v>
+        <v>0.449438202247191</v>
       </c>
       <c r="L27">
-        <v>162</v>
+        <v>40</v>
       </c>
       <c r="M27">
-        <v>163</v>
+        <v>40</v>
       </c>
       <c r="N27">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>220</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1324,25 +1354,25 @@
         <v>36</v>
       </c>
       <c r="K28">
-        <v>0.4090909090909091</v>
+        <v>0.4372881355932203</v>
       </c>
       <c r="L28">
-        <v>36</v>
+        <v>129</v>
       </c>
       <c r="M28">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="N28">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>52</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1350,13 +1380,13 @@
         <v>37</v>
       </c>
       <c r="K29">
-        <v>0.390625</v>
+        <v>0.4255874673629243</v>
       </c>
       <c r="L29">
-        <v>25</v>
+        <v>163</v>
       </c>
       <c r="M29">
-        <v>25</v>
+        <v>163</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1368,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>39</v>
+        <v>220</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1376,25 +1406,25 @@
         <v>38</v>
       </c>
       <c r="K30">
-        <v>0.2383177570093458</v>
+        <v>0.425531914893617</v>
       </c>
       <c r="L30">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="M30">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="N30">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>163</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1402,25 +1432,25 @@
         <v>39</v>
       </c>
       <c r="K31">
-        <v>0.2313253012048193</v>
+        <v>0.42</v>
       </c>
       <c r="L31">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="M31">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="N31">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>319</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1428,25 +1458,25 @@
         <v>40</v>
       </c>
       <c r="K32">
-        <v>0.21875</v>
+        <v>0.359375</v>
       </c>
       <c r="L32">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M32">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N32">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>75</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1454,25 +1484,25 @@
         <v>41</v>
       </c>
       <c r="K33">
-        <v>0.2151898734177215</v>
+        <v>0.3559322033898305</v>
       </c>
       <c r="L33">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="M33">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="N33">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>124</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1480,25 +1510,25 @@
         <v>42</v>
       </c>
       <c r="K34">
-        <v>0.1772151898734177</v>
+        <v>0.2989690721649484</v>
       </c>
       <c r="L34">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M34">
         <v>29</v>
       </c>
       <c r="N34">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>130</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1506,25 +1536,25 @@
         <v>43</v>
       </c>
       <c r="K35">
-        <v>0.1493975903614458</v>
+        <v>0.2418604651162791</v>
       </c>
       <c r="L35">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="M35">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="N35">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>353</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1532,13 +1562,13 @@
         <v>44</v>
       </c>
       <c r="K36">
-        <v>0.147239263803681</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="L36">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M36">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1550,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>139</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1558,25 +1588,25 @@
         <v>45</v>
       </c>
       <c r="K37">
-        <v>0.1470588235294118</v>
+        <v>0.2180451127819549</v>
       </c>
       <c r="L37">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="M37">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="N37">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1584,25 +1614,25 @@
         <v>46</v>
       </c>
       <c r="K38">
-        <v>0.143939393939394</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="L38">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="M38">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="N38">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O38">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>113</v>
+        <v>330</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1610,25 +1640,25 @@
         <v>47</v>
       </c>
       <c r="K39">
-        <v>0.1168224299065421</v>
+        <v>0.1949685534591195</v>
       </c>
       <c r="L39">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M39">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="N39">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>189</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1636,25 +1666,25 @@
         <v>48</v>
       </c>
       <c r="K40">
-        <v>0.10662177328844</v>
+        <v>0.1886792452830189</v>
       </c>
       <c r="L40">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="M40">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="N40">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>796</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1662,25 +1692,25 @@
         <v>49</v>
       </c>
       <c r="K41">
-        <v>0.100111234705228</v>
+        <v>0.183206106870229</v>
       </c>
       <c r="L41">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="M41">
-        <v>92</v>
+        <v>24</v>
       </c>
       <c r="N41">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>809</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1688,25 +1718,25 @@
         <v>50</v>
       </c>
       <c r="K42">
-        <v>0.09826589595375723</v>
+        <v>0.1716417910447761</v>
       </c>
       <c r="L42">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="M42">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="N42">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>312</v>
+        <v>111</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1714,25 +1744,25 @@
         <v>51</v>
       </c>
       <c r="K43">
-        <v>0.09572970436414829</v>
+        <v>0.1656441717791411</v>
       </c>
       <c r="L43">
-        <v>204</v>
+        <v>27</v>
       </c>
       <c r="M43">
-        <v>216</v>
+        <v>27</v>
       </c>
       <c r="N43">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O43">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>1927</v>
+        <v>136</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1740,25 +1770,25 @@
         <v>52</v>
       </c>
       <c r="K44">
-        <v>0.09357857373346241</v>
+        <v>0.1496062992125984</v>
       </c>
       <c r="L44">
-        <v>290</v>
+        <v>19</v>
       </c>
       <c r="M44">
-        <v>298</v>
+        <v>19</v>
       </c>
       <c r="N44">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>2809</v>
+        <v>108</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1766,25 +1796,25 @@
         <v>53</v>
       </c>
       <c r="K45">
-        <v>0.09322033898305085</v>
+        <v>0.1468531468531468</v>
       </c>
       <c r="L45">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M45">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N45">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>214</v>
+        <v>122</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1792,13 +1822,13 @@
         <v>54</v>
       </c>
       <c r="K46">
-        <v>0.09259259259259259</v>
+        <v>0.1466346153846154</v>
       </c>
       <c r="L46">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="M46">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1810,7 +1840,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>441</v>
+        <v>355</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -1818,25 +1848,25 @@
         <v>55</v>
       </c>
       <c r="K47">
-        <v>0.09259259259259259</v>
+        <v>0.1162790697674419</v>
       </c>
       <c r="L47">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M47">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="N47">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O47">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>294</v>
+        <v>190</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -1844,13 +1874,13 @@
         <v>56</v>
       </c>
       <c r="K48">
-        <v>0.08260869565217391</v>
+        <v>0.1146131805157593</v>
       </c>
       <c r="L48">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="M48">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -1862,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>211</v>
+        <v>309</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -1870,25 +1900,25 @@
         <v>57</v>
       </c>
       <c r="K49">
-        <v>0.07184241019698726</v>
+        <v>0.109704641350211</v>
       </c>
       <c r="L49">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="M49">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="N49">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O49">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>801</v>
+        <v>211</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -1896,25 +1926,25 @@
         <v>58</v>
       </c>
       <c r="K50">
-        <v>0.07142857142857142</v>
+        <v>0.1096196868008949</v>
       </c>
       <c r="L50">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="M50">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="N50">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>598</v>
+        <v>796</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -1922,25 +1952,25 @@
         <v>59</v>
       </c>
       <c r="K51">
-        <v>0.05309734513274336</v>
+        <v>0.108695652173913</v>
       </c>
       <c r="L51">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M51">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="N51">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O51">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51">
-        <v>535</v>
+        <v>205</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -1948,25 +1978,25 @@
         <v>60</v>
       </c>
       <c r="K52">
-        <v>0.04888749608273268</v>
+        <v>0.1026598226784881</v>
       </c>
       <c r="L52">
-        <v>156</v>
+        <v>220</v>
       </c>
       <c r="M52">
-        <v>166</v>
+        <v>220</v>
       </c>
       <c r="N52">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>3035</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -1974,25 +2004,285 @@
         <v>61</v>
       </c>
       <c r="K53">
-        <v>0.04400345125107852</v>
+        <v>0.1009174311926606</v>
       </c>
       <c r="L53">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="M53">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="N53">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O53">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53">
-        <v>1108</v>
+        <v>294</v>
+      </c>
+    </row>
+    <row r="54" spans="10:17">
+      <c r="J54" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K54">
+        <v>0.09988901220865705</v>
+      </c>
+      <c r="L54">
+        <v>90</v>
+      </c>
+      <c r="M54">
+        <v>90</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="55" spans="10:17">
+      <c r="J55" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K55">
+        <v>0.09913099452848406</v>
+      </c>
+      <c r="L55">
+        <v>308</v>
+      </c>
+      <c r="M55">
+        <v>308</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="56" spans="10:17">
+      <c r="J56" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K56">
+        <v>0.08641975308641975</v>
+      </c>
+      <c r="L56">
+        <v>42</v>
+      </c>
+      <c r="M56">
+        <v>42</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="57" spans="10:17">
+      <c r="J57" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K57">
+        <v>0.08307692307692308</v>
+      </c>
+      <c r="L57">
+        <v>54</v>
+      </c>
+      <c r="M57">
+        <v>54</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="58" spans="10:17">
+      <c r="J58" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K58">
+        <v>0.08116883116883117</v>
+      </c>
+      <c r="L58">
+        <v>25</v>
+      </c>
+      <c r="M58">
+        <v>25</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="59" spans="10:17">
+      <c r="J59" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K59">
+        <v>0.07612456747404844</v>
+      </c>
+      <c r="L59">
+        <v>66</v>
+      </c>
+      <c r="M59">
+        <v>66</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="60" spans="10:17">
+      <c r="J60" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K60">
+        <v>0.0564373897707231</v>
+      </c>
+      <c r="L60">
+        <v>32</v>
+      </c>
+      <c r="M60">
+        <v>32</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="61" spans="10:17">
+      <c r="J61" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K61">
+        <v>0.05154639175257732</v>
+      </c>
+      <c r="L61">
+        <v>165</v>
+      </c>
+      <c r="M61">
+        <v>165</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="62" spans="10:17">
+      <c r="J62" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K62">
+        <v>0.04909560723514212</v>
+      </c>
+      <c r="L62">
+        <v>57</v>
+      </c>
+      <c r="M62">
+        <v>57</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="63" spans="10:17">
+      <c r="J63" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K63">
+        <v>0.02892561983471074</v>
+      </c>
+      <c r="L63">
+        <v>28</v>
+      </c>
+      <c r="M63">
+        <v>28</v>
+      </c>
+      <c r="N63">
+        <v>1</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>940</v>
       </c>
     </row>
   </sheetData>
